--- a/xlsx/丹麥_intext.xlsx
+++ b/xlsx/丹麥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1052">
   <si>
     <t>丹麥</t>
   </si>
@@ -29,7 +29,7 @@
     <t>法罗群岛</t>
   </si>
   <si>
-    <t>政策_政策_政治_丹麥</t>
+    <t>体育运动_体育运动_欧洲议会_丹麥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1358,6 +1358,30 @@
     <t>風力發電機</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/ISS%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>ISS集團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E6%96%BD%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>設施管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%89</t>
+  </si>
+  <si>
+    <t>保安</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81</t>
   </si>
   <si>
@@ -1796,10 +1820,28 @@
     <t>摩纳哥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1880,10 +1922,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1892,6 +1934,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1922,10 +1970,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -2006,18 +2054,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -2042,10 +2090,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2096,16 +2144,22 @@
     <t>色雷斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -3465,7 +3519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3751,7 +3805,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5607,7 +5661,7 @@
         <v>144</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -10218,7 +10272,7 @@
         <v>454</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10247,7 +10301,7 @@
         <v>456</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10276,7 +10330,7 @@
         <v>458</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10305,7 +10359,7 @@
         <v>460</v>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10363,7 +10417,7 @@
         <v>464</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -10392,7 +10446,7 @@
         <v>466</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10421,7 +10475,7 @@
         <v>468</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10972,7 +11026,7 @@
         <v>506</v>
       </c>
       <c r="G259" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -11088,7 +11142,7 @@
         <v>514</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11117,7 +11171,7 @@
         <v>516</v>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11175,7 +11229,7 @@
         <v>520</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11233,7 +11287,7 @@
         <v>524</v>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11291,7 +11345,7 @@
         <v>528</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11349,7 +11403,7 @@
         <v>532</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11494,7 +11548,7 @@
         <v>542</v>
       </c>
       <c r="G277" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11610,7 +11664,7 @@
         <v>550</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11755,7 +11809,7 @@
         <v>560</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11813,7 +11867,7 @@
         <v>564</v>
       </c>
       <c r="G288" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11842,7 +11896,7 @@
         <v>566</v>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11871,7 +11925,7 @@
         <v>568</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11900,7 +11954,7 @@
         <v>570</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11929,7 +11983,7 @@
         <v>572</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11958,7 +12012,7 @@
         <v>574</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12016,7 +12070,7 @@
         <v>578</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12074,7 +12128,7 @@
         <v>582</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12103,7 +12157,7 @@
         <v>584</v>
       </c>
       <c r="G298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12161,7 +12215,7 @@
         <v>588</v>
       </c>
       <c r="G300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12190,7 +12244,7 @@
         <v>590</v>
       </c>
       <c r="G301" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12248,7 +12302,7 @@
         <v>594</v>
       </c>
       <c r="G303" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12306,7 +12360,7 @@
         <v>598</v>
       </c>
       <c r="G305" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12335,7 +12389,7 @@
         <v>600</v>
       </c>
       <c r="G306" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12364,7 +12418,7 @@
         <v>602</v>
       </c>
       <c r="G307" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12422,7 +12476,7 @@
         <v>606</v>
       </c>
       <c r="G309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12451,7 +12505,7 @@
         <v>608</v>
       </c>
       <c r="G310" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12480,7 +12534,7 @@
         <v>610</v>
       </c>
       <c r="G311" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12509,7 +12563,7 @@
         <v>612</v>
       </c>
       <c r="G312" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12567,7 +12621,7 @@
         <v>616</v>
       </c>
       <c r="G314" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12596,7 +12650,7 @@
         <v>618</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12625,7 +12679,7 @@
         <v>620</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12654,7 +12708,7 @@
         <v>622</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12683,7 +12737,7 @@
         <v>624</v>
       </c>
       <c r="G318" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12712,7 +12766,7 @@
         <v>626</v>
       </c>
       <c r="G319" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12741,7 +12795,7 @@
         <v>628</v>
       </c>
       <c r="G320" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12770,7 +12824,7 @@
         <v>630</v>
       </c>
       <c r="G321" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12799,7 +12853,7 @@
         <v>632</v>
       </c>
       <c r="G322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12828,7 +12882,7 @@
         <v>634</v>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12886,7 +12940,7 @@
         <v>638</v>
       </c>
       <c r="G325" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12973,7 +13027,7 @@
         <v>644</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13002,7 +13056,7 @@
         <v>646</v>
       </c>
       <c r="G329" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13031,7 +13085,7 @@
         <v>648</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -13089,7 +13143,7 @@
         <v>652</v>
       </c>
       <c r="G332" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13147,7 +13201,7 @@
         <v>656</v>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13176,7 +13230,7 @@
         <v>658</v>
       </c>
       <c r="G335" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13205,7 +13259,7 @@
         <v>660</v>
       </c>
       <c r="G336" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13234,7 +13288,7 @@
         <v>662</v>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13292,7 +13346,7 @@
         <v>666</v>
       </c>
       <c r="G339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13350,7 +13404,7 @@
         <v>670</v>
       </c>
       <c r="G341" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13379,7 +13433,7 @@
         <v>672</v>
       </c>
       <c r="G342" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13437,7 +13491,7 @@
         <v>676</v>
       </c>
       <c r="G344" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13466,7 +13520,7 @@
         <v>678</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13495,7 +13549,7 @@
         <v>680</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13524,7 +13578,7 @@
         <v>682</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13553,7 +13607,7 @@
         <v>684</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13582,7 +13636,7 @@
         <v>686</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13611,7 +13665,7 @@
         <v>688</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13640,7 +13694,7 @@
         <v>690</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13698,7 +13752,7 @@
         <v>694</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13756,7 +13810,7 @@
         <v>698</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13814,7 +13868,7 @@
         <v>702</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13959,7 +14013,7 @@
         <v>712</v>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -13988,7 +14042,7 @@
         <v>714</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14017,7 +14071,7 @@
         <v>716</v>
       </c>
       <c r="G364" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14075,7 +14129,7 @@
         <v>720</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14104,7 +14158,7 @@
         <v>722</v>
       </c>
       <c r="G367" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14133,7 +14187,7 @@
         <v>724</v>
       </c>
       <c r="G368" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14162,7 +14216,7 @@
         <v>726</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14220,7 +14274,7 @@
         <v>730</v>
       </c>
       <c r="G371" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14249,7 +14303,7 @@
         <v>732</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14278,7 +14332,7 @@
         <v>734</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14336,7 +14390,7 @@
         <v>738</v>
       </c>
       <c r="G375" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14365,7 +14419,7 @@
         <v>740</v>
       </c>
       <c r="G376" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14394,7 +14448,7 @@
         <v>742</v>
       </c>
       <c r="G377" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -14423,7 +14477,7 @@
         <v>744</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14481,7 +14535,7 @@
         <v>748</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14597,7 +14651,7 @@
         <v>756</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14626,7 +14680,7 @@
         <v>758</v>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14736,10 +14790,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="F389" t="s">
-        <v>678</v>
+        <v>766</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14765,10 +14819,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F390" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14794,13 +14848,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F391" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14823,10 +14877,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="F392" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14852,13 +14906,13 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F393" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="G393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14881,10 +14935,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="F394" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14910,13 +14964,13 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F395" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14939,13 +14993,13 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F396" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14968,10 +15022,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F397" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14997,10 +15051,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="F398" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15026,10 +15080,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F399" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15055,10 +15109,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F400" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15084,13 +15138,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>785</v>
+        <v>699</v>
       </c>
       <c r="F401" t="s">
-        <v>786</v>
+        <v>700</v>
       </c>
       <c r="G401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15119,7 +15173,7 @@
         <v>788</v>
       </c>
       <c r="G402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -15177,7 +15231,7 @@
         <v>792</v>
       </c>
       <c r="G404" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15235,7 +15289,7 @@
         <v>796</v>
       </c>
       <c r="G406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15264,7 +15318,7 @@
         <v>798</v>
       </c>
       <c r="G407" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -15287,13 +15341,13 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>199</v>
+        <v>799</v>
       </c>
       <c r="F408" t="s">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G408" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -15316,13 +15370,13 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F409" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15345,13 +15399,13 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F410" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -15374,10 +15428,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F411" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15403,10 +15457,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F412" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15432,13 +15486,13 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F413" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G413" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15461,13 +15515,13 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F414" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15490,13 +15544,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F415" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -15519,13 +15573,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F416" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G416" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15548,13 +15602,13 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>641</v>
+        <v>199</v>
       </c>
       <c r="F417" t="s">
-        <v>642</v>
+        <v>200</v>
       </c>
       <c r="G417" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -15577,13 +15631,13 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F418" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G418" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15606,13 +15660,13 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G419" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15635,10 +15689,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15664,10 +15718,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15693,10 +15747,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15722,10 +15776,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15751,13 +15805,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F424" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15780,10 +15834,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15809,13 +15863,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>831</v>
+        <v>657</v>
       </c>
       <c r="F426" t="s">
-        <v>832</v>
+        <v>658</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15873,7 +15927,7 @@
         <v>836</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15902,7 +15956,7 @@
         <v>838</v>
       </c>
       <c r="G429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -15960,7 +16014,7 @@
         <v>842</v>
       </c>
       <c r="G431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16012,13 +16066,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>259</v>
+        <v>845</v>
       </c>
       <c r="F433" t="s">
-        <v>260</v>
+        <v>846</v>
       </c>
       <c r="G433" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -16041,10 +16095,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F434" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16070,10 +16124,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F435" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16099,10 +16153,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F436" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16128,10 +16182,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F437" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16157,13 +16211,13 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F438" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -16186,10 +16240,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F439" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16215,10 +16269,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F440" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16244,10 +16298,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F441" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16273,13 +16327,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>861</v>
+        <v>259</v>
       </c>
       <c r="F442" t="s">
-        <v>862</v>
+        <v>260</v>
       </c>
       <c r="G442" t="n">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16482,7 +16536,7 @@
         <v>876</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16627,7 +16681,7 @@
         <v>886</v>
       </c>
       <c r="G454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -16714,7 +16768,7 @@
         <v>892</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -16888,7 +16942,7 @@
         <v>904</v>
       </c>
       <c r="G463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -16975,7 +17029,7 @@
         <v>910</v>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -17091,7 +17145,7 @@
         <v>918</v>
       </c>
       <c r="G470" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17207,7 +17261,7 @@
         <v>926</v>
       </c>
       <c r="G474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17352,7 +17406,7 @@
         <v>936</v>
       </c>
       <c r="G479" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -17468,7 +17522,7 @@
         <v>944</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17584,7 +17638,7 @@
         <v>952</v>
       </c>
       <c r="G487" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -17694,10 +17748,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>775</v>
+        <v>959</v>
       </c>
       <c r="F491" t="s">
-        <v>776</v>
+        <v>960</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17723,10 +17777,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F492" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17752,10 +17806,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F493" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17781,10 +17835,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F494" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17810,10 +17864,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F495" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17839,13 +17893,13 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F496" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -17868,10 +17922,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F497" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17897,10 +17951,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F498" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17926,10 +17980,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F499" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17955,10 +18009,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>975</v>
+        <v>793</v>
       </c>
       <c r="F500" t="s">
-        <v>976</v>
+        <v>794</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18158,10 +18212,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>757</v>
+        <v>989</v>
       </c>
       <c r="F507" t="s">
-        <v>758</v>
+        <v>990</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18187,10 +18241,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F508" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18216,10 +18270,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F509" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18245,10 +18299,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F510" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18274,10 +18328,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F511" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18303,10 +18357,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F512" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18332,10 +18386,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F513" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18361,10 +18415,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F514" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18390,10 +18444,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F515" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18419,10 +18473,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1005</v>
+        <v>775</v>
       </c>
       <c r="F516" t="s">
-        <v>1006</v>
+        <v>776</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18541,7 +18595,7 @@
         <v>1014</v>
       </c>
       <c r="G520" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -18802,7 +18856,7 @@
         <v>1032</v>
       </c>
       <c r="G529" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -18825,10 +18879,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F530" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18837,6 +18891,267 @@
         <v>4</v>
       </c>
       <c r="I530" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>0</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1</v>
+      </c>
+      <c r="D531" t="n">
+        <v>530</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G531" t="n">
+        <v>1</v>
+      </c>
+      <c r="H531" t="s">
+        <v>4</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1</v>
+      </c>
+      <c r="D532" t="n">
+        <v>531</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G532" t="n">
+        <v>1</v>
+      </c>
+      <c r="H532" t="s">
+        <v>4</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>0</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1</v>
+      </c>
+      <c r="D533" t="n">
+        <v>532</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G533" t="n">
+        <v>1</v>
+      </c>
+      <c r="H533" t="s">
+        <v>4</v>
+      </c>
+      <c r="I533" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>0</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1</v>
+      </c>
+      <c r="D534" t="n">
+        <v>533</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1</v>
+      </c>
+      <c r="H534" t="s">
+        <v>4</v>
+      </c>
+      <c r="I534" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>0</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1</v>
+      </c>
+      <c r="D535" t="n">
+        <v>534</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G535" t="n">
+        <v>1</v>
+      </c>
+      <c r="H535" t="s">
+        <v>4</v>
+      </c>
+      <c r="I535" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>0</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1</v>
+      </c>
+      <c r="D536" t="n">
+        <v>535</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1</v>
+      </c>
+      <c r="H536" t="s">
+        <v>4</v>
+      </c>
+      <c r="I536" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>536</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1</v>
+      </c>
+      <c r="H537" t="s">
+        <v>4</v>
+      </c>
+      <c r="I537" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>537</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G538" t="n">
+        <v>18</v>
+      </c>
+      <c r="H538" t="s">
+        <v>4</v>
+      </c>
+      <c r="I538" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>0</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1</v>
+      </c>
+      <c r="D539" t="n">
+        <v>538</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1</v>
+      </c>
+      <c r="H539" t="s">
+        <v>4</v>
+      </c>
+      <c r="I539" t="n">
         <v>3</v>
       </c>
     </row>
